--- a/biology/Zoologie/Dendrocygninae/Dendrocygninae.xlsx
+++ b/biology/Zoologie/Dendrocygninae/Dendrocygninae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille des dendrocygninés est parfois considérée, par certains auteurs, comme une famille à part entière : la famille des dendrocygnidés.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle comprend 8 espèces tropicales. Le nom de dendrocygne fait référence à l'habitude de certaines espèces du groupe de se percher dans les arbres. Ce groupe se caractérise par un corps trapu, un cou et des pattes assez longs. La plupart des espèces sont grégaires.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">genre Dendrocygna Swainson, 1837 — canards siffleurs, qui comprend huit espèces :
 Dendrocygna viduata (Linnaeus, 1766) — Dendrocygne veuf
@@ -584,7 +600,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr + en) Référence ITIS : - Dendrocygnidae
  Portail de l'ornithologie                     </t>
